--- a/SchedulingData/dynamic13/pso/scheduling2_20.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_20.xlsx
@@ -466,150 +466,150 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>254.42</v>
+        <v>223.88</v>
       </c>
       <c r="D2" t="n">
-        <v>319.32</v>
+        <v>269.76</v>
       </c>
       <c r="E2" t="n">
-        <v>10.208</v>
+        <v>13.144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>319.32</v>
+        <v>234.84</v>
       </c>
       <c r="D3" t="n">
-        <v>368.7</v>
+        <v>301.64</v>
       </c>
       <c r="E3" t="n">
-        <v>7.4</v>
+        <v>10.456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>211.16</v>
+        <v>260.38</v>
       </c>
       <c r="D4" t="n">
-        <v>266.72</v>
+        <v>320.78</v>
       </c>
       <c r="E4" t="n">
-        <v>14.828</v>
+        <v>12.032</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>210.32</v>
+        <v>219.18</v>
       </c>
       <c r="D5" t="n">
-        <v>268.16</v>
+        <v>265.38</v>
       </c>
       <c r="E5" t="n">
-        <v>10.884</v>
+        <v>13.112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>368.7</v>
+        <v>252.98</v>
       </c>
       <c r="D6" t="n">
-        <v>401.5</v>
+        <v>308.4</v>
       </c>
       <c r="E6" t="n">
-        <v>4.76</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>268.16</v>
+        <v>265.38</v>
       </c>
       <c r="D7" t="n">
-        <v>324.46</v>
+        <v>320.66</v>
       </c>
       <c r="E7" t="n">
-        <v>7.884</v>
+        <v>9.724</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>227.1</v>
+        <v>301.64</v>
       </c>
       <c r="D8" t="n">
-        <v>296.54</v>
+        <v>345.2</v>
       </c>
       <c r="E8" t="n">
-        <v>12.136</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>324.46</v>
+        <v>345.2</v>
       </c>
       <c r="D9" t="n">
-        <v>403.94</v>
+        <v>394.72</v>
       </c>
       <c r="E9" t="n">
-        <v>4.556</v>
+        <v>5.388</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>401.5</v>
+        <v>269.76</v>
       </c>
       <c r="D10" t="n">
-        <v>458.9</v>
+        <v>324.14</v>
       </c>
       <c r="E10" t="n">
-        <v>1.64</v>
+        <v>9.816000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>458.9</v>
+        <v>227.32</v>
       </c>
       <c r="D11" t="n">
-        <v>547.3200000000001</v>
+        <v>281.48</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>12.492</v>
       </c>
     </row>
     <row r="12">
@@ -656,36 +656,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>547.3200000000001</v>
+        <v>324.14</v>
       </c>
       <c r="D12" t="n">
-        <v>598.8</v>
+        <v>395.84</v>
       </c>
       <c r="E12" t="n">
-        <v>27.032</v>
+        <v>5.736</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>206.8</v>
+        <v>395.84</v>
       </c>
       <c r="D13" t="n">
-        <v>256.16</v>
+        <v>448.74</v>
       </c>
       <c r="E13" t="n">
-        <v>14.564</v>
+        <v>3.576</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>260.08</v>
+        <v>281.48</v>
       </c>
       <c r="D14" t="n">
-        <v>295.14</v>
+        <v>327</v>
       </c>
       <c r="E14" t="n">
-        <v>13.596</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="15">
@@ -713,318 +713,318 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>295.14</v>
+        <v>327</v>
       </c>
       <c r="D15" t="n">
-        <v>355.76</v>
+        <v>389.4</v>
       </c>
       <c r="E15" t="n">
-        <v>9.644</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>266.72</v>
+        <v>308.4</v>
       </c>
       <c r="D16" t="n">
-        <v>323.92</v>
+        <v>368.86</v>
       </c>
       <c r="E16" t="n">
-        <v>11.748</v>
+        <v>8.384</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>256.16</v>
+        <v>320.66</v>
       </c>
       <c r="D17" t="n">
-        <v>314.22</v>
+        <v>389.44</v>
       </c>
       <c r="E17" t="n">
-        <v>10.868</v>
+        <v>6.916</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>323.92</v>
+        <v>368.86</v>
       </c>
       <c r="D18" t="n">
-        <v>365.82</v>
+        <v>423.52</v>
       </c>
       <c r="E18" t="n">
-        <v>9.667999999999999</v>
+        <v>6.008</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>296.54</v>
+        <v>320.78</v>
       </c>
       <c r="D19" t="n">
-        <v>356.4</v>
+        <v>403.5</v>
       </c>
       <c r="E19" t="n">
-        <v>9.76</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>356.4</v>
+        <v>403.5</v>
       </c>
       <c r="D20" t="n">
-        <v>445.96</v>
+        <v>443.4</v>
       </c>
       <c r="E20" t="n">
-        <v>7.384</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>355.76</v>
+        <v>443.4</v>
       </c>
       <c r="D21" t="n">
-        <v>418.56</v>
+        <v>485.9</v>
       </c>
       <c r="E21" t="n">
-        <v>6.464</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>418.56</v>
+        <v>423.52</v>
       </c>
       <c r="D22" t="n">
-        <v>473.36</v>
+        <v>493.42</v>
       </c>
       <c r="E22" t="n">
-        <v>3.604</v>
+        <v>3.608</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>314.22</v>
+        <v>485.9</v>
       </c>
       <c r="D23" t="n">
-        <v>366.92</v>
+        <v>571.88</v>
       </c>
       <c r="E23" t="n">
-        <v>7.228</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>473.36</v>
+        <v>571.88</v>
       </c>
       <c r="D24" t="n">
-        <v>542.64</v>
+        <v>631.48</v>
       </c>
       <c r="E24" t="n">
-        <v>0.796</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>542.64</v>
+        <v>493.42</v>
       </c>
       <c r="D25" t="n">
-        <v>613.05</v>
+        <v>550.4400000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>365.82</v>
+        <v>550.4400000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>449.06</v>
+        <v>630.21</v>
       </c>
       <c r="E26" t="n">
-        <v>6.444</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>366.92</v>
+        <v>389.44</v>
       </c>
       <c r="D27" t="n">
-        <v>432.42</v>
+        <v>448.76</v>
       </c>
       <c r="E27" t="n">
-        <v>2.808</v>
+        <v>4.584</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>598.8</v>
+        <v>631.48</v>
       </c>
       <c r="D28" t="n">
-        <v>649.12</v>
+        <v>689.28</v>
       </c>
       <c r="E28" t="n">
-        <v>24.12</v>
+        <v>23.52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>445.96</v>
+        <v>394.72</v>
       </c>
       <c r="D29" t="n">
-        <v>522.88</v>
+        <v>431.8</v>
       </c>
       <c r="E29" t="n">
-        <v>4.792</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>432.42</v>
+        <v>448.76</v>
       </c>
       <c r="D30" t="n">
-        <v>483.48</v>
+        <v>502.84</v>
       </c>
       <c r="E30" t="n">
-        <v>0.312</v>
+        <v>1.776</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>483.48</v>
+        <v>502.84</v>
       </c>
       <c r="D31" t="n">
-        <v>569.46</v>
+        <v>571.29</v>
       </c>
       <c r="E31" t="n">
         <v>30</v>
@@ -1032,26 +1032,26 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>522.88</v>
+        <v>448.74</v>
       </c>
       <c r="D32" t="n">
-        <v>572.16</v>
+        <v>486.54</v>
       </c>
       <c r="E32" t="n">
-        <v>1.984</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>572.16</v>
+        <v>486.54</v>
       </c>
       <c r="D33" t="n">
-        <v>635.1900000000001</v>
+        <v>556.5700000000001</v>
       </c>
       <c r="E33" t="n">
         <v>30</v>
@@ -1070,78 +1070,78 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>449.06</v>
+        <v>556.5700000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>493.68</v>
+        <v>608.13</v>
       </c>
       <c r="E34" t="n">
-        <v>4.112</v>
+        <v>27.504</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>635.1900000000001</v>
+        <v>389.4</v>
       </c>
       <c r="D35" t="n">
-        <v>700.79</v>
+        <v>436.16</v>
       </c>
       <c r="E35" t="n">
-        <v>27.58</v>
+        <v>2.904</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>569.46</v>
+        <v>436.16</v>
       </c>
       <c r="D36" t="n">
-        <v>630.38</v>
+        <v>483.26</v>
       </c>
       <c r="E36" t="n">
-        <v>27.088</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>403.94</v>
+        <v>483.26</v>
       </c>
       <c r="D37" t="n">
-        <v>471.54</v>
+        <v>592.91</v>
       </c>
       <c r="E37" t="n">
-        <v>2.396</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>493.68</v>
+        <v>431.8</v>
       </c>
       <c r="D38" t="n">
-        <v>535.78</v>
+        <v>508.96</v>
       </c>
       <c r="E38" t="n">
-        <v>1.032</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
@@ -1169,93 +1169,93 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>535.78</v>
+        <v>508.96</v>
       </c>
       <c r="D39" t="n">
-        <v>615.42</v>
+        <v>579.5599999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>613.05</v>
+        <v>630.21</v>
       </c>
       <c r="D40" t="n">
-        <v>672.97</v>
+        <v>682.71</v>
       </c>
       <c r="E40" t="n">
-        <v>27.668</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>471.54</v>
+        <v>608.13</v>
       </c>
       <c r="D41" t="n">
-        <v>538.65</v>
+        <v>652.99</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>25.128</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>538.65</v>
+        <v>592.91</v>
       </c>
       <c r="D42" t="n">
-        <v>616.45</v>
+        <v>663.0700000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>26.36</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>616.45</v>
+        <v>571.29</v>
       </c>
       <c r="D43" t="n">
-        <v>670.65</v>
+        <v>616.27</v>
       </c>
       <c r="E43" t="n">
-        <v>23.06</v>
+        <v>27.192</v>
       </c>
     </row>
   </sheetData>
